--- a/Analysis/Comp_all_coupe.xlsx
+++ b/Analysis/Comp_all_coupe.xlsx
@@ -568,6 +568,11 @@
       <c r="T2">
         <v>63</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>N</t>
@@ -659,6 +664,11 @@
       <c r="T3">
         <v>45</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>N</t>
@@ -750,6 +760,11 @@
       <c r="T4">
         <v>29</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>N</t>
@@ -841,6 +856,11 @@
       <c r="T5">
         <v>44</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
           <t>N</t>
@@ -932,6 +952,11 @@
       <c r="T6">
         <v>18</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>N</t>
@@ -1023,6 +1048,11 @@
       <c r="T7">
         <v>19</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>N</t>
@@ -1114,6 +1144,11 @@
       <c r="T8">
         <v>19</v>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>N</t>
@@ -1205,6 +1240,11 @@
       <c r="T9">
         <v>16</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>N</t>
@@ -1296,6 +1336,11 @@
       <c r="T10">
         <v>16.4</v>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>N</t>
@@ -1387,6 +1432,11 @@
       <c r="T11">
         <v>21.82933805684451</v>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>N</t>
@@ -1478,6 +1528,11 @@
       <c r="T12">
         <v>10.295630140987</v>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
           <t>N</t>
@@ -1569,6 +1624,11 @@
       <c r="T13">
         <v>15</v>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
           <t>N</t>
@@ -1660,6 +1720,11 @@
       <c r="T14">
         <v>12.26417547167359</v>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
           <t>N</t>
@@ -1751,6 +1816,11 @@
       <c r="T15">
         <v>5.172040216394301</v>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
           <t>N</t>
@@ -1842,6 +1912,11 @@
       <c r="T16">
         <v>9.228217049999136</v>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
           <t>N</t>
@@ -1933,6 +2008,11 @@
       <c r="T17">
         <v>2.366209499999778</v>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
           <t>N</t>
@@ -2024,6 +2104,11 @@
       <c r="T18">
         <v>1.656346649999843</v>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
           <t>N</t>
@@ -2115,6 +2200,11 @@
       <c r="T19">
         <v>1.285404346347183</v>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
           <t>N</t>
@@ -2206,6 +2296,11 @@
       <c r="T20">
         <v>1.071170288622654</v>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
           <t>N</t>
@@ -2297,6 +2392,11 @@
       <c r="T21">
         <v>1.071170288622652</v>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
           <t>N</t>
@@ -2388,6 +2488,11 @@
       <c r="T22">
         <v>147.1842213037836</v>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
           <t>N</t>
@@ -2479,6 +2584,11 @@
       <c r="T23">
         <v>136.8522478032664</v>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
           <t>N</t>
@@ -2570,6 +2680,11 @@
       <c r="T24">
         <v>79.25304224049886</v>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
           <t>N</t>
@@ -2661,6 +2776,11 @@
       <c r="T25">
         <v>78.201284459009</v>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
           <t>N</t>
@@ -2752,6 +2872,11 @@
       <c r="T26">
         <v>39.62652112024943</v>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
           <t>N</t>
@@ -2843,6 +2968,11 @@
       <c r="T27">
         <v>39.1006422295045</v>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>N</t>
@@ -2934,6 +3064,11 @@
       <c r="T28">
         <v>1.1</v>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
           <t>N</t>
@@ -3025,6 +3160,11 @@
       <c r="T29">
         <v>1</v>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
           <t>N</t>
@@ -3116,6 +3256,11 @@
       <c r="T30">
         <v>1</v>
       </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
           <t>N</t>
@@ -3207,6 +3352,11 @@
       <c r="T31">
         <v>0.7</v>
       </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
           <t>N</t>
@@ -3298,6 +3448,11 @@
       <c r="T32">
         <v>0.7</v>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
           <t>N</t>
@@ -3389,6 +3544,11 @@
       <c r="T33">
         <v>0.4</v>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
           <t>N</t>
@@ -3480,6 +3640,11 @@
       <c r="T34">
         <v>0.7</v>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
           <t>N</t>
@@ -3571,6 +3736,11 @@
       <c r="T35">
         <v>0.5</v>
       </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
           <t>N</t>
@@ -3662,6 +3832,11 @@
       <c r="T36">
         <v>0.5</v>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
           <t>N</t>
@@ -3753,6 +3928,11 @@
       <c r="T37">
         <v>0.4</v>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
           <t>N</t>
@@ -3844,6 +4024,11 @@
       <c r="T38">
         <v>0.6</v>
       </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
           <t>N</t>
@@ -3935,6 +4120,11 @@
       <c r="T39">
         <v>0.4</v>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
           <t>N</t>
@@ -4026,6 +4216,11 @@
       <c r="T40">
         <v>0.7</v>
       </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
           <t>N</t>
@@ -4117,6 +4312,11 @@
       <c r="T41">
         <v>0.4</v>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
           <t>N</t>
@@ -4208,6 +4408,11 @@
       <c r="T42">
         <v>116.6666666666666</v>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>N</t>
@@ -4299,6 +4504,11 @@
       <c r="T43">
         <v>115.1315789473683</v>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
           <t>N</t>
@@ -4390,6 +4600,11 @@
       <c r="T44">
         <v>52.19298245614035</v>
       </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
           <t>N</t>
@@ -4481,6 +4696,11 @@
       <c r="T45">
         <v>4.455389994153149</v>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
           <t>N</t>
@@ -4572,6 +4792,11 @@
       <c r="T46">
         <v>0.03612478373637689</v>
       </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
           <t>N</t>
@@ -4663,6 +4888,11 @@
       <c r="T47">
         <v>25.76901239861552</v>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
           <t>N</t>
@@ -4754,6 +4984,11 @@
       <c r="T48">
         <v>4.4</v>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
           <t>N</t>
@@ -4845,6 +5080,11 @@
       <c r="T49">
         <v>4.496220635155709</v>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
           <t>N</t>
@@ -4936,6 +5176,11 @@
       <c r="T50">
         <v>2.408318915758459</v>
       </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
           <t>N</t>
@@ -5027,6 +5272,11 @@
       <c r="T51">
         <v>45.39681156204696</v>
       </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
           <t>N</t>
@@ -5118,6 +5368,11 @@
       <c r="T52">
         <v>11.68034674142853</v>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
           <t>N</t>
@@ -5209,6 +5464,11 @@
       <c r="T53">
         <v>1.893444658366756</v>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
           <t>N</t>
@@ -5300,6 +5560,11 @@
       <c r="T54">
         <v>1.442624501612766</v>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
           <t>N</t>
@@ -5391,6 +5656,11 @@
       <c r="T55">
         <v>1.262296438911171</v>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
           <t>N</t>
@@ -5482,6 +5752,11 @@
       <c r="T56">
         <v>0.6491810257257448</v>
       </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
           <t>N</t>
@@ -5573,6 +5848,11 @@
       <c r="T57">
         <v>69.63565456044456</v>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
           <t>N</t>
@@ -5664,6 +5944,11 @@
       <c r="T58">
         <v>43.771691597024</v>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
           <t>N</t>
@@ -5755,6 +6040,11 @@
       <c r="T59">
         <v>41.17556878593993</v>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
           <t>N</t>
@@ -5846,6 +6136,11 @@
       <c r="T60">
         <v>43.67728308003336</v>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
           <t>N</t>
@@ -5937,6 +6232,11 @@
       <c r="T61">
         <v>7.177800085057718</v>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
           <t>N</t>
@@ -6028,6 +6328,11 @@
       <c r="T62">
         <v>6.0121725264163</v>
       </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
           <t>N</t>
@@ -6119,6 +6424,11 @@
       <c r="T63">
         <v>5.066925830692351</v>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr">
         <is>
           <t>N</t>
@@ -6210,6 +6520,11 @@
       <c r="T64">
         <v>3.377953390100441</v>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
           <t>N</t>
@@ -6301,6 +6616,11 @@
       <c r="T65">
         <v>4.49426985599013</v>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr">
         <is>
           <t>N</t>
@@ -6392,6 +6712,11 @@
       <c r="T66">
         <v>3.501633605689883</v>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr">
         <is>
           <t>N</t>
@@ -6483,6 +6808,11 @@
       <c r="T67">
         <v>4.548018888093101</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr">
         <is>
           <t>N</t>
@@ -6574,6 +6904,11 @@
       <c r="T68">
         <v>3.974276260512321</v>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr">
         <is>
           <t>N</t>
@@ -6665,6 +7000,11 @@
       <c r="T69">
         <v>9.021963939926458</v>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr">
         <is>
           <t>N</t>
@@ -6756,6 +7096,11 @@
       <c r="T70">
         <v>6.222718234198156</v>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr">
         <is>
           <t>N</t>
@@ -6847,6 +7192,11 @@
       <c r="T71">
         <v>8.589124590113348</v>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr">
         <is>
           <t>N</t>
@@ -6938,6 +7288,11 @@
       <c r="T72">
         <v>7.131602631776463</v>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr">
         <is>
           <t>N</t>
@@ -7029,6 +7384,11 @@
       <c r="T73">
         <v>25.80046403712298</v>
       </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr">
         <is>
           <t>N</t>
@@ -7120,6 +7480,11 @@
       <c r="T74">
         <v>7.668845315904139</v>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr">
         <is>
           <t>N</t>
@@ -7211,6 +7576,11 @@
       <c r="T75">
         <v>47.84642097377817</v>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr">
         <is>
           <t>N</t>
@@ -7302,6 +7672,11 @@
       <c r="T76">
         <v>12.73734666247253</v>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr">
         <is>
           <t>N</t>
@@ -7393,6 +7768,11 @@
       <c r="T77">
         <v>10.56124992602675</v>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr">
         <is>
           <t>N</t>
@@ -7484,6 +7864,11 @@
       <c r="T78">
         <v>10.2469507659596</v>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr">
         <is>
           <t>N</t>
@@ -7575,6 +7960,11 @@
       <c r="T79">
         <v>2.33238075793812</v>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr">
         <is>
           <t>N</t>
@@ -7666,6 +8056,11 @@
       <c r="T80">
         <v>1.122497216032182</v>
       </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr">
         <is>
           <t>N</t>
@@ -7757,6 +8152,11 @@
       <c r="T81">
         <v>0.2828427124746191</v>
       </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr">
         <is>
           <t>N</t>
@@ -7848,6 +8248,11 @@
       <c r="T82">
         <v>0.1414213562373095</v>
       </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
           <t>N</t>
@@ -7939,6 +8344,11 @@
       <c r="T83">
         <v>3.49857113690718</v>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr">
         <is>
           <t>N</t>
@@ -8030,6 +8440,11 @@
       <c r="T84">
         <v>1.624807680927192</v>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr">
         <is>
           <t>N</t>
@@ -8121,6 +8536,11 @@
       <c r="T85">
         <v>1.02469507659596</v>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr">
         <is>
           <t>N</t>
@@ -8212,6 +8632,11 @@
       <c r="T86">
         <v>0.2828427124746191</v>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
           <t>N</t>
@@ -8303,6 +8728,11 @@
       <c r="T87">
         <v>0.1414213562373095</v>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr">
         <is>
           <t>N</t>
@@ -8394,6 +8824,11 @@
       <c r="T88">
         <v>1.708800749063506</v>
       </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
           <t>N</t>
@@ -8485,6 +8920,11 @@
       <c r="T89">
         <v>0.9797958971132712</v>
       </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr">
         <is>
           <t>N</t>
@@ -8576,6 +9016,11 @@
       <c r="T90">
         <v>0.3741657386773942</v>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr">
         <is>
           <t>N</t>
@@ -8667,6 +9112,11 @@
       <c r="T91">
         <v>2.33238075793812</v>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr">
         <is>
           <t>N</t>
@@ -8758,6 +9208,11 @@
       <c r="T92">
         <v>0.5656854249492381</v>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr">
         <is>
           <t>N</t>
@@ -8849,6 +9304,11 @@
       <c r="T93">
         <v>1.624807680927192</v>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr">
         <is>
           <t>N</t>
@@ -8940,6 +9400,11 @@
       <c r="T94">
         <v>1.02469507659596</v>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr">
         <is>
           <t>N</t>
@@ -9031,6 +9496,11 @@
       <c r="T95">
         <v>0.2828427124746191</v>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr">
         <is>
           <t>N</t>
@@ -9122,6 +9592,11 @@
       <c r="T96">
         <v>0.9797958971132712</v>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V96" t="inlineStr">
         <is>
           <t>N</t>
@@ -9213,6 +9688,11 @@
       <c r="T97">
         <v>1.708800749063506</v>
       </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V97" t="inlineStr">
         <is>
           <t>N</t>
@@ -9304,6 +9784,11 @@
       <c r="T98">
         <v>0.3741657386773942</v>
       </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr">
         <is>
           <t>N</t>
@@ -9395,6 +9880,11 @@
       <c r="T99">
         <v>1.131147540983607</v>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr">
         <is>
           <t>N</t>
@@ -9486,6 +9976,11 @@
       <c r="T100">
         <v>0.6885245901639344</v>
       </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr">
         <is>
           <t>N</t>
@@ -9577,6 +10072,11 @@
       <c r="T101">
         <v>113.1724200857036</v>
       </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr">
         <is>
           <t>N</t>
@@ -9668,6 +10168,11 @@
       <c r="T102">
         <v>98.5695271714194</v>
       </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V102" t="inlineStr">
         <is>
           <t>N</t>
@@ -9759,6 +10264,11 @@
       <c r="T103">
         <v>73.01446457142175</v>
       </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V103" t="inlineStr">
         <is>
           <t>N</t>
@@ -9850,6 +10360,11 @@
       <c r="T104">
         <v>40.15795551428196</v>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V104" t="inlineStr">
         <is>
           <t>N</t>
@@ -9941,6 +10456,11 @@
       <c r="T105">
         <v>27.4</v>
       </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V105" t="inlineStr">
         <is>
           <t>N</t>
@@ -10032,6 +10552,11 @@
       <c r="T106">
         <v>0.8</v>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr">
         <is>
           <t>N</t>
@@ -10123,6 +10648,11 @@
       <c r="T107">
         <v>1</v>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr">
         <is>
           <t>N</t>
@@ -10214,6 +10744,11 @@
       <c r="T108">
         <v>19.6</v>
       </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V108" t="inlineStr">
         <is>
           <t>N</t>
@@ -10305,6 +10840,11 @@
       <c r="T109">
         <v>13.6</v>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V109" t="inlineStr">
         <is>
           <t>N</t>
@@ -10396,6 +10936,11 @@
       <c r="T110">
         <v>19.0750435164757</v>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V110" t="inlineStr">
         <is>
           <t>N</t>
@@ -10487,6 +11032,11 @@
       <c r="T111">
         <v>7.815387512984415</v>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V111" t="inlineStr">
         <is>
           <t>N</t>
@@ -10578,6 +11128,11 @@
       <c r="T112">
         <v>2.222971595585438</v>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V112" t="inlineStr">
         <is>
           <t>N</t>
@@ -10669,6 +11224,11 @@
       <c r="T113">
         <v>43.00623210652149</v>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V113" t="inlineStr">
         <is>
           <t>N</t>
@@ -10760,6 +11320,11 @@
       <c r="T114">
         <v>29.06372997397271</v>
       </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V114" t="inlineStr">
         <is>
           <t>N</t>
@@ -10851,6 +11416,11 @@
       <c r="T115">
         <v>49.98948389411517</v>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V115" t="inlineStr">
         <is>
           <t>N</t>
@@ -10942,6 +11512,11 @@
       <c r="T116">
         <v>35.49492921531187</v>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V116" t="inlineStr">
         <is>
           <t>N</t>
@@ -11033,6 +11608,11 @@
       <c r="T117">
         <v>45.79519625462915</v>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V117" t="inlineStr">
         <is>
           <t>N</t>
@@ -11124,6 +11704,11 @@
       <c r="T118">
         <v>33.80295845040786</v>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V118" t="inlineStr">
         <is>
           <t>N</t>
@@ -11215,6 +11800,11 @@
       <c r="T119">
         <v>17.4</v>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V119" t="inlineStr">
         <is>
           <t>N</t>
@@ -11306,6 +11896,11 @@
       <c r="T120">
         <v>14.17233220045311</v>
       </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V120" t="inlineStr">
         <is>
           <t>N</t>
@@ -11397,6 +11992,11 @@
       <c r="T121">
         <v>24.59378376744823</v>
       </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V121" t="inlineStr">
         <is>
           <t>N</t>
@@ -11488,6 +12088,11 @@
       <c r="T122">
         <v>19.68479616353698</v>
       </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V122" t="inlineStr">
         <is>
           <t>N</t>
@@ -11579,6 +12184,11 @@
       <c r="T123">
         <v>9.54214336509361</v>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V123" t="inlineStr">
         <is>
           <t>N</t>
@@ -11670,6 +12280,11 @@
       <c r="T124">
         <v>7.739670535623593</v>
       </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V124" t="inlineStr">
         <is>
           <t>N</t>
@@ -11761,6 +12376,11 @@
       <c r="T125">
         <v>7.670032594454863</v>
       </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V125" t="inlineStr">
         <is>
           <t>N</t>
@@ -11852,6 +12472,11 @@
       <c r="T126">
         <v>4.797332592180784</v>
       </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V126" t="inlineStr">
         <is>
           <t>N</t>
@@ -11943,6 +12568,11 @@
       <c r="T127">
         <v>5.138209804980719</v>
       </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V127" t="inlineStr">
         <is>
           <t>N</t>
@@ -12034,6 +12664,11 @@
       <c r="T128">
         <v>13.20687321056729</v>
       </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V128" t="inlineStr">
         <is>
           <t>N</t>
@@ -12125,6 +12760,11 @@
       <c r="T129">
         <v>6.738991022400906</v>
       </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V129" t="inlineStr">
         <is>
           <t>N</t>
@@ -12216,6 +12856,11 @@
       <c r="T130">
         <v>4.105362346979862</v>
       </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V130" t="inlineStr">
         <is>
           <t>N</t>
@@ -12307,6 +12952,11 @@
       <c r="T131">
         <v>3.446955178124601</v>
       </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V131" t="inlineStr">
         <is>
           <t>N</t>
@@ -12398,6 +13048,11 @@
       <c r="T132">
         <v>2.285060174262376</v>
       </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr">
         <is>
           <t>N</t>
@@ -12489,6 +13144,11 @@
       <c r="T133">
         <v>0.9682458365518543</v>
       </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V133" t="inlineStr">
         <is>
           <t>N</t>
@@ -12580,6 +13240,11 @@
       <c r="T134">
         <v>24.21</v>
       </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V134" t="inlineStr">
         <is>
           <t>N</t>
@@ -12671,6 +13336,11 @@
       <c r="T135">
         <v>22.49376802583329</v>
       </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V135" t="inlineStr">
         <is>
           <t>N</t>
@@ -12762,6 +13432,11 @@
       <c r="T136">
         <v>22.60583995342796</v>
       </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V136" t="inlineStr">
         <is>
           <t>N</t>
@@ -12853,6 +13528,11 @@
       <c r="T137">
         <v>23.59321936489381</v>
       </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V137" t="inlineStr">
         <is>
           <t>N</t>
@@ -12944,6 +13624,11 @@
       <c r="T138">
         <v>33.80295845040786</v>
       </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V138" t="inlineStr">
         <is>
           <t>N</t>
@@ -13035,6 +13720,11 @@
       <c r="T139">
         <v>28.00457998256714</v>
       </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V139" t="inlineStr">
         <is>
           <t>N</t>
@@ -13126,6 +13816,11 @@
       <c r="T140">
         <v>11.67133240037315</v>
       </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V140" t="inlineStr">
         <is>
           <t>N</t>
@@ -13217,6 +13912,11 @@
       <c r="T141">
         <v>17.67815601243523</v>
       </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V141" t="inlineStr">
         <is>
           <t>N</t>
@@ -13308,6 +14008,11 @@
       <c r="T142">
         <v>11.4</v>
       </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V142" t="inlineStr">
         <is>
           <t>N</t>
@@ -13399,6 +14104,11 @@
       <c r="T143">
         <v>9.368649849364635</v>
       </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V143" t="inlineStr">
         <is>
           <t>N</t>
@@ -13490,6 +14200,11 @@
       <c r="T144">
         <v>13.60566793656232</v>
       </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V144" t="inlineStr">
         <is>
           <t>N</t>
@@ -13581,6 +14296,11 @@
       <c r="T145">
         <v>8.403070867248474</v>
       </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V145" t="inlineStr">
         <is>
           <t>N</t>
@@ -13672,6 +14392,11 @@
       <c r="T146">
         <v>9.894498471372867</v>
       </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V146" t="inlineStr">
         <is>
           <t>N</t>
@@ -13763,6 +14488,11 @@
       <c r="T147">
         <v>10.1403648849536</v>
       </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V147" t="inlineStr">
         <is>
           <t>N</t>
@@ -13854,6 +14584,11 @@
       <c r="T148">
         <v>9.148087231765993</v>
       </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V148" t="inlineStr">
         <is>
           <t>N</t>
@@ -13945,6 +14680,11 @@
       <c r="T149">
         <v>7.351190379795643</v>
       </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V149" t="inlineStr">
         <is>
           <t>N</t>
@@ -14036,6 +14776,11 @@
       <c r="T150">
         <v>10.06864988558353</v>
       </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V150" t="inlineStr">
         <is>
           <t>N</t>
@@ -14127,6 +14872,11 @@
       <c r="T151">
         <v>3.112128146453092</v>
       </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V151" t="inlineStr">
         <is>
           <t>N</t>
@@ -14218,6 +14968,11 @@
       <c r="T152">
         <v>53.5</v>
       </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V152" t="inlineStr">
         <is>
           <t>N</t>
@@ -14309,6 +15064,11 @@
       <c r="T153">
         <v>52</v>
       </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V153" t="inlineStr">
         <is>
           <t>N</t>
@@ -14400,6 +15160,11 @@
       <c r="T154">
         <v>20</v>
       </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V154" t="inlineStr">
         <is>
           <t>N</t>
@@ -14491,6 +15256,11 @@
       <c r="T155">
         <v>2.420859747005643</v>
       </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V155" t="inlineStr">
         <is>
           <t>N</t>
@@ -14582,6 +15352,11 @@
       <c r="T156">
         <v>1.613906498003759</v>
       </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V156" t="inlineStr">
         <is>
           <t>N</t>
@@ -14673,6 +15448,11 @@
       <c r="T157">
         <v>0.7695851410053323</v>
       </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V157" t="inlineStr">
         <is>
           <t>N</t>
@@ -14764,6 +15544,11 @@
       <c r="T158">
         <v>0.3362305204174492</v>
       </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V158" t="inlineStr">
         <is>
           <t>N</t>
@@ -14855,6 +15640,11 @@
       <c r="T159">
         <v>0.3420378404468156</v>
       </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V159" t="inlineStr">
         <is>
           <t>N</t>
@@ -14946,6 +15736,11 @@
       <c r="T160">
         <v>40.3441355565232</v>
       </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V160" t="inlineStr">
         <is>
           <t>N</t>
@@ -15037,6 +15832,11 @@
       <c r="T161">
         <v>25.58408596267332</v>
       </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V161" t="inlineStr">
         <is>
           <t>N</t>
@@ -15128,6 +15928,11 @@
       <c r="T162">
         <v>8.856029756309974</v>
       </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V162" t="inlineStr">
         <is>
           <t>N</t>
@@ -15219,6 +16024,11 @@
       <c r="T163">
         <v>7.211114663333659</v>
       </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V163" t="inlineStr">
         <is>
           <t>N</t>
@@ -15310,6 +16120,11 @@
       <c r="T164">
         <v>4.120636950476372</v>
       </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V164" t="inlineStr">
         <is>
           <t>N</t>
@@ -15401,6 +16216,11 @@
       <c r="T165">
         <v>0.066332495807108</v>
       </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V165" t="inlineStr">
         <is>
           <t>N</t>
@@ -15492,6 +16312,11 @@
       <c r="T166">
         <v>0.33166247903554</v>
       </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V166" t="inlineStr">
         <is>
           <t>N</t>
@@ -15583,6 +16408,11 @@
       <c r="T167">
         <v>0.24</v>
       </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V167" t="inlineStr">
         <is>
           <t>N</t>
@@ -15674,6 +16504,11 @@
       <c r="T168">
         <v>4.199999999999999</v>
       </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V168" t="inlineStr">
         <is>
           <t>N</t>
@@ -15765,6 +16600,11 @@
       <c r="T169">
         <v>207</v>
       </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V169" t="inlineStr">
         <is>
           <t>N</t>
@@ -15856,6 +16696,11 @@
       <c r="T170">
         <v>15.58813651467038</v>
       </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V170" t="inlineStr">
         <is>
           <t>N</t>
@@ -15947,6 +16792,11 @@
       <c r="T171">
         <v>15.80645161290323</v>
       </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V171" t="inlineStr">
         <is>
           <t>N</t>
@@ -16038,6 +16888,11 @@
       <c r="T172">
         <v>14.67741935483872</v>
       </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V172" t="inlineStr">
         <is>
           <t>N</t>
@@ -16129,6 +16984,11 @@
       <c r="T173">
         <v>10.72580645161287</v>
       </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V173" t="inlineStr">
         <is>
           <t>N</t>
@@ -16220,6 +17080,11 @@
       <c r="T174">
         <v>6.098455598455644</v>
       </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V174" t="inlineStr">
         <is>
           <t>N</t>
@@ -16311,6 +17176,11 @@
       <c r="T175">
         <v>3.388030888030898</v>
       </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V175" t="inlineStr">
         <is>
           <t>N</t>
@@ -16402,6 +17272,11 @@
       <c r="T176">
         <v>1.581081081081066</v>
       </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V176" t="inlineStr">
         <is>
           <t>N</t>
@@ -16493,6 +17368,11 @@
       <c r="T177">
         <v>17.93103448275861</v>
       </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V177" t="inlineStr">
         <is>
           <t>N</t>
@@ -16584,6 +17464,11 @@
       <c r="T178">
         <v>15.17241379310343</v>
       </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V178" t="inlineStr">
         <is>
           <t>N</t>
@@ -16675,6 +17560,11 @@
       <c r="T179">
         <v>14.48275862068965</v>
       </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V179" t="inlineStr">
         <is>
           <t>N</t>
@@ -16766,6 +17656,11 @@
       <c r="T180">
         <v>13.79310344827584</v>
       </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V180" t="inlineStr">
         <is>
           <t>N</t>
@@ -16857,6 +17752,11 @@
       <c r="T181">
         <v>13.10344827586209</v>
       </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V181" t="inlineStr">
         <is>
           <t>N</t>
@@ -16948,6 +17848,11 @@
       <c r="T182">
         <v>12.17391304347825</v>
       </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V182" t="inlineStr">
         <is>
           <t>N</t>
@@ -17039,6 +17944,11 @@
       <c r="T183">
         <v>11.66666666666666</v>
       </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V183" t="inlineStr">
         <is>
           <t>N</t>
@@ -17130,6 +18040,11 @@
       <c r="T184">
         <v>10.34482758620689</v>
       </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V184" t="inlineStr">
         <is>
           <t>N</t>
@@ -17221,6 +18136,11 @@
       <c r="T185">
         <v>8.115942028985501</v>
       </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V185" t="inlineStr">
         <is>
           <t>N</t>
@@ -17312,6 +18232,11 @@
       <c r="T186">
         <v>118.7739463601531</v>
       </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V186" t="inlineStr">
         <is>
           <t>N</t>
@@ -17403,6 +18328,11 @@
       <c r="T187">
         <v>17.24137931034488</v>
       </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V187" t="inlineStr">
         <is>
           <t>N</t>
@@ -17494,6 +18424,11 @@
       <c r="T188">
         <v>13.40996168582387</v>
       </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V188" t="inlineStr">
         <is>
           <t>N</t>
@@ -17585,6 +18520,11 @@
       <c r="T189">
         <v>9.375</v>
       </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V189" t="inlineStr">
         <is>
           <t>N</t>
@@ -17676,6 +18616,11 @@
       <c r="T190">
         <v>4.687499999999944</v>
       </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V190" t="inlineStr">
         <is>
           <t>N</t>
@@ -17767,6 +18712,11 @@
       <c r="T191">
         <v>3.831417624521122</v>
       </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V191" t="inlineStr">
         <is>
           <t>N</t>
@@ -17858,6 +18808,11 @@
       <c r="T192">
         <v>3.515625</v>
       </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V192" t="inlineStr">
         <is>
           <t>N</t>
@@ -17949,6 +18904,11 @@
       <c r="T193">
         <v>1.915708812260505</v>
       </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V193" t="inlineStr">
         <is>
           <t>N</t>
@@ -18040,6 +19000,11 @@
       <c r="T194">
         <v>5.2</v>
       </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V194" t="inlineStr">
         <is>
           <t>N</t>
@@ -18131,6 +19096,11 @@
       <c r="T195">
         <v>4.8</v>
       </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V195" t="inlineStr">
         <is>
           <t>N</t>
@@ -18222,6 +19192,11 @@
       <c r="T196">
         <v>3.95</v>
       </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V196" t="inlineStr">
         <is>
           <t>N</t>
@@ -18313,6 +19288,11 @@
       <c r="T197">
         <v>2.4</v>
       </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V197" t="inlineStr">
         <is>
           <t>N</t>
@@ -18404,6 +19384,11 @@
       <c r="T198">
         <v>2.3</v>
       </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V198" t="inlineStr">
         <is>
           <t>N</t>
@@ -18495,6 +19480,11 @@
       <c r="T199">
         <v>2.2</v>
       </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V199" t="inlineStr">
         <is>
           <t>N</t>
@@ -18586,6 +19576,11 @@
       <c r="T200">
         <v>1.85</v>
       </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V200" t="inlineStr">
         <is>
           <t>N</t>
@@ -18677,6 +19672,11 @@
       <c r="T201">
         <v>1</v>
       </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V201" t="inlineStr">
         <is>
           <t>N</t>
@@ -18768,6 +19768,11 @@
       <c r="T202">
         <v>2.655</v>
       </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V202" t="inlineStr">
         <is>
           <t>N</t>
@@ -18859,6 +19864,11 @@
       <c r="T203">
         <v>2.655</v>
       </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V203" t="inlineStr">
         <is>
           <t>N</t>
@@ -18950,6 +19960,11 @@
       <c r="T204">
         <v>2.5</v>
       </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V204" t="inlineStr">
         <is>
           <t>N</t>
@@ -19041,6 +20056,11 @@
       <c r="T205">
         <v>17.58438260757584</v>
       </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V205" t="inlineStr">
         <is>
           <t>N</t>
@@ -19132,6 +20152,11 @@
       <c r="T206">
         <v>13.6105530896927</v>
       </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V206" t="inlineStr">
         <is>
           <t>N</t>
@@ -19223,6 +20248,11 @@
       <c r="T207">
         <v>12.16438191338728</v>
       </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V207" t="inlineStr">
         <is>
           <t>N</t>
@@ -19314,6 +20344,11 @@
       <c r="T208">
         <v>11.21735028286186</v>
       </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V208" t="inlineStr">
         <is>
           <t>N</t>
@@ -19405,6 +20440,11 @@
       <c r="T209">
         <v>9.21870446327994</v>
       </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V209" t="inlineStr">
         <is>
           <t>N</t>
@@ -19496,6 +20536,11 @@
       <c r="T210">
         <v>8.077126166234073</v>
       </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V210" t="inlineStr">
         <is>
           <t>N</t>
@@ -19587,6 +20632,11 @@
       <c r="T211">
         <v>6.975098475133409</v>
       </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V211" t="inlineStr">
         <is>
           <t>N</t>
@@ -19678,6 +20728,11 @@
       <c r="T212">
         <v>3.115221543190451</v>
       </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V212" t="inlineStr">
         <is>
           <t>N</t>
@@ -19769,6 +20824,11 @@
       <c r="T213">
         <v>3.385793162463274</v>
       </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V213" t="inlineStr">
         <is>
           <t>N</t>
@@ -19860,6 +20920,11 @@
       <c r="T214">
         <v>3.436384227518772</v>
       </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V214" t="inlineStr">
         <is>
           <t>N</t>
@@ -19951,6 +21016,11 @@
       <c r="T215">
         <v>2.90103337168946</v>
       </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V215" t="inlineStr">
         <is>
           <t>N</t>
@@ -20042,6 +21112,11 @@
       <c r="T216">
         <v>5.564085332203811</v>
       </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V216" t="inlineStr">
         <is>
           <t>N</t>
@@ -20133,6 +21208,11 @@
       <c r="T217">
         <v>1.933122439368856</v>
       </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V217" t="inlineStr">
         <is>
           <t>N</t>
@@ -20224,6 +21304,11 @@
       <c r="T218">
         <v>4.122777178876717</v>
       </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V218" t="inlineStr">
         <is>
           <t>N</t>
@@ -20315,6 +21400,11 @@
       <c r="T219">
         <v>1.477273225350065</v>
       </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V219" t="inlineStr">
         <is>
           <t>N</t>
@@ -20406,6 +21496,11 @@
       <c r="T220">
         <v>15.81468534294538</v>
       </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V220" t="inlineStr">
         <is>
           <t>N</t>
@@ -20497,6 +21592,11 @@
       <c r="T221">
         <v>11.76069904767508</v>
       </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V221" t="inlineStr">
         <is>
           <t>N</t>
@@ -20588,6 +21688,11 @@
       <c r="T222">
         <v>21.05184878347905</v>
       </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V222" t="inlineStr">
         <is>
           <t>N</t>
@@ -20679,6 +21784,11 @@
       <c r="T223">
         <v>17.58438260757584</v>
       </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V223" t="inlineStr">
         <is>
           <t>N</t>
@@ -20770,6 +21880,11 @@
       <c r="T224">
         <v>15.31542870993606</v>
       </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V224" t="inlineStr">
         <is>
           <t>N</t>
@@ -20861,6 +21976,11 @@
       <c r="T225">
         <v>13.6105530896927</v>
       </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V225" t="inlineStr">
         <is>
           <t>N</t>
@@ -20952,6 +22072,11 @@
       <c r="T226">
         <v>7.232335138395718</v>
       </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V226" t="inlineStr">
         <is>
           <t>N</t>
@@ -21043,6 +22168,11 @@
       <c r="T227">
         <v>12.16438191338728</v>
       </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V227" t="inlineStr">
         <is>
           <t>N</t>
@@ -21134,6 +22264,11 @@
       <c r="T228">
         <v>12.56234321091031</v>
       </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V228" t="inlineStr">
         <is>
           <t>N</t>
@@ -21225,6 +22360,11 @@
       <c r="T229">
         <v>9.21870446327994</v>
       </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V229" t="inlineStr">
         <is>
           <t>N</t>
@@ -21316,6 +22456,11 @@
       <c r="T230">
         <v>2.645144536218453</v>
       </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V230" t="inlineStr">
         <is>
           <t>N</t>
@@ -21407,6 +22552,11 @@
       <c r="T231">
         <v>8.840093085636136</v>
       </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V231" t="inlineStr">
         <is>
           <t>N</t>
@@ -21498,6 +22648,11 @@
       <c r="T232">
         <v>6.975098475133409</v>
       </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V232" t="inlineStr">
         <is>
           <t>N</t>
@@ -21589,6 +22744,11 @@
       <c r="T233">
         <v>3.998390387442861</v>
       </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V233" t="inlineStr">
         <is>
           <t>N</t>
@@ -21680,6 +22840,11 @@
       <c r="T234">
         <v>5.342473758669196</v>
       </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V234" t="inlineStr">
         <is>
           <t>N</t>
@@ -21771,6 +22936,11 @@
       <c r="T235">
         <v>4.875783875262356</v>
       </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V235" t="inlineStr">
         <is>
           <t>N</t>
@@ -21862,6 +23032,11 @@
       <c r="T236">
         <v>3.385793162463274</v>
       </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V236" t="inlineStr">
         <is>
           <t>N</t>
@@ -21953,6 +23128,11 @@
       <c r="T237">
         <v>1.990657056662795</v>
       </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V237" t="inlineStr">
         <is>
           <t>N</t>
@@ -22044,6 +23224,11 @@
       <c r="T238">
         <v>2592.435225806038</v>
       </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V238" t="inlineStr">
         <is>
           <t>N</t>
@@ -22135,6 +23320,11 @@
       <c r="T239">
         <v>2025.12261357183</v>
       </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V239" t="inlineStr">
         <is>
           <t>N</t>
@@ -22226,6 +23416,11 @@
       <c r="T240">
         <v>395.9171630530811</v>
       </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V240" t="inlineStr">
         <is>
           <t>N</t>
@@ -22317,6 +23512,11 @@
       <c r="T241">
         <v>373.7812194319025</v>
       </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V241" t="inlineStr">
         <is>
           <t>N</t>
@@ -22408,6 +23608,11 @@
       <c r="T242">
         <v>251.0848462173693</v>
       </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V242" t="inlineStr">
         <is>
           <t>N</t>
@@ -22499,6 +23704,11 @@
       <c r="T243">
         <v>24.03331021727968</v>
       </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V243" t="inlineStr">
         <is>
           <t>N</t>
@@ -22590,6 +23800,11 @@
       <c r="T244">
         <v>11.38419957660617</v>
       </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V244" t="inlineStr">
         <is>
           <t>N</t>
@@ -22681,6 +23896,11 @@
       <c r="T245">
         <v>9.486832980505138</v>
       </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V245" t="inlineStr">
         <is>
           <t>N</t>
@@ -22772,6 +23992,11 @@
       <c r="T246">
         <v>1.897366596101028</v>
       </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V246" t="inlineStr">
         <is>
           <t>N</t>
@@ -22860,6 +24085,11 @@
       <c r="T247">
         <v>29.5</v>
       </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V247" t="inlineStr">
         <is>
           <t>N</t>
@@ -22948,6 +24178,11 @@
       <c r="T248">
         <v>17</v>
       </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V248" t="inlineStr">
         <is>
           <t>N</t>
@@ -23036,6 +24271,11 @@
       <c r="T249">
         <v>19.7</v>
       </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V249" t="inlineStr">
         <is>
           <t>N</t>
@@ -23124,6 +24364,11 @@
       <c r="T250">
         <v>14.8</v>
       </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V250" t="inlineStr">
         <is>
           <t>N</t>
@@ -23212,6 +24457,11 @@
       <c r="T251">
         <v>12.8</v>
       </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V251" t="inlineStr">
         <is>
           <t>N</t>
@@ -23300,6 +24550,11 @@
       <c r="T252">
         <v>27.3362396828825</v>
       </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V252" t="inlineStr">
         <is>
           <t>N</t>
@@ -23388,6 +24643,11 @@
       <c r="T253">
         <v>158.457735710065</v>
       </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V253" t="inlineStr">
         <is>
           <t>N</t>
@@ -23476,6 +24736,11 @@
       <c r="T254">
         <v>28.37181700208853</v>
       </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V254" t="inlineStr">
         <is>
           <t>N</t>
@@ -23564,6 +24829,11 @@
       <c r="T255">
         <v>53.35850447679358</v>
       </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V255" t="inlineStr">
         <is>
           <t>N</t>
@@ -23655,6 +24925,11 @@
       <c r="T256">
         <v>1.131370849898476</v>
       </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V256" t="inlineStr">
         <is>
           <t>N</t>
@@ -23746,6 +25021,11 @@
       <c r="T257">
         <v>0.848528137423857</v>
       </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V257" t="inlineStr">
         <is>
           <t>N</t>
@@ -23837,6 +25117,11 @@
       <c r="T258">
         <v>0.848528137423857</v>
       </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V258" t="inlineStr">
         <is>
           <t>N</t>
@@ -23928,6 +25213,11 @@
       <c r="T259">
         <v>14.5</v>
       </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V259" t="inlineStr">
         <is>
           <t>N</t>
@@ -24019,6 +25309,11 @@
       <c r="T260">
         <v>5.4</v>
       </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V260" t="inlineStr">
         <is>
           <t>N</t>
@@ -24110,6 +25405,11 @@
       <c r="T261">
         <v>18.3</v>
       </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V261" t="inlineStr">
         <is>
           <t>N</t>
@@ -24201,6 +25501,11 @@
       <c r="T262">
         <v>15.7</v>
       </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V262" t="inlineStr">
         <is>
           <t>N</t>
@@ -24292,6 +25597,11 @@
       <c r="T263">
         <v>9.699999999999999</v>
       </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V263" t="inlineStr">
         <is>
           <t>N</t>
@@ -24383,6 +25693,11 @@
       <c r="T264">
         <v>14.7</v>
       </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V264" t="inlineStr">
         <is>
           <t>N</t>
@@ -24474,6 +25789,11 @@
       <c r="T265">
         <v>9.9</v>
       </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V265" t="inlineStr">
         <is>
           <t>N</t>
@@ -24565,6 +25885,11 @@
       <c r="T266">
         <v>8</v>
       </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V266" t="inlineStr">
         <is>
           <t>N</t>
@@ -24656,6 +25981,11 @@
       <c r="T267">
         <v>7.1</v>
       </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V267" t="inlineStr">
         <is>
           <t>N</t>
@@ -24747,6 +26077,11 @@
       <c r="T268">
         <v>4.6</v>
       </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V268" t="inlineStr">
         <is>
           <t>N</t>
@@ -24838,6 +26173,11 @@
       <c r="T269">
         <v>6.5</v>
       </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V269" t="inlineStr">
         <is>
           <t>N</t>
@@ -24929,6 +26269,11 @@
       <c r="T270">
         <v>6.4</v>
       </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V270" t="inlineStr">
         <is>
           <t>N</t>
@@ -25020,6 +26365,11 @@
       <c r="T271">
         <v>14.6</v>
       </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V271" t="inlineStr">
         <is>
           <t>N</t>
@@ -25111,6 +26461,11 @@
       <c r="T272">
         <v>16.8</v>
       </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V272" t="inlineStr">
         <is>
           <t>N</t>
@@ -25202,6 +26557,11 @@
       <c r="T273">
         <v>32.5</v>
       </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V273" t="inlineStr">
         <is>
           <t>N</t>
@@ -25293,6 +26653,11 @@
       <c r="T274">
         <v>16.3</v>
       </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V274" t="inlineStr">
         <is>
           <t>N</t>
@@ -25384,6 +26749,11 @@
       <c r="T275">
         <v>29.9</v>
       </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V275" t="inlineStr">
         <is>
           <t>N</t>
@@ -25475,6 +26845,11 @@
       <c r="T276">
         <v>4.1</v>
       </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V276" t="inlineStr">
         <is>
           <t>N</t>
@@ -25566,6 +26941,11 @@
       <c r="T277">
         <v>21.2</v>
       </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V277" t="inlineStr">
         <is>
           <t>N</t>
@@ -25657,6 +27037,11 @@
       <c r="T278">
         <v>15.2</v>
       </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V278" t="inlineStr">
         <is>
           <t>N</t>
@@ -25748,6 +27133,11 @@
       <c r="T279">
         <v>12.1</v>
       </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V279" t="inlineStr">
         <is>
           <t>N</t>
@@ -25839,6 +27229,11 @@
       <c r="T280">
         <v>10.3</v>
       </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V280" t="inlineStr">
         <is>
           <t>N</t>
@@ -25930,6 +27325,11 @@
       <c r="T281">
         <v>7.5</v>
       </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V281" t="inlineStr">
         <is>
           <t>N</t>
@@ -26021,6 +27421,11 @@
       <c r="T282">
         <v>7.6</v>
       </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V282" t="inlineStr">
         <is>
           <t>N</t>
@@ -26112,6 +27517,11 @@
       <c r="T283">
         <v>14.8</v>
       </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V283" t="inlineStr">
         <is>
           <t>N</t>
@@ -26203,6 +27613,11 @@
       <c r="T284">
         <v>5.4</v>
       </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V284" t="inlineStr">
         <is>
           <t>N</t>
@@ -26294,6 +27709,11 @@
       <c r="T285">
         <v>14.5</v>
       </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V285" t="inlineStr">
         <is>
           <t>N</t>
@@ -26385,6 +27805,11 @@
       <c r="T286">
         <v>13.7</v>
       </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V286" t="inlineStr">
         <is>
           <t>N</t>
@@ -26476,6 +27901,11 @@
       <c r="T287">
         <v>15.7</v>
       </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V287" t="inlineStr">
         <is>
           <t>N</t>
@@ -26567,6 +27997,11 @@
       <c r="T288">
         <v>9.6</v>
       </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V288" t="inlineStr">
         <is>
           <t>N</t>
@@ -26658,6 +28093,11 @@
       <c r="T289">
         <v>18.3</v>
       </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V289" t="inlineStr">
         <is>
           <t>N</t>
@@ -26749,6 +28189,11 @@
       <c r="T290">
         <v>9.699999999999999</v>
       </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V290" t="inlineStr">
         <is>
           <t>N</t>
@@ -26840,6 +28285,11 @@
       <c r="T291">
         <v>9.9</v>
       </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V291" t="inlineStr">
         <is>
           <t>N</t>
@@ -26931,6 +28381,11 @@
       <c r="T292">
         <v>8</v>
       </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V292" t="inlineStr">
         <is>
           <t>N</t>
@@ -27022,6 +28477,11 @@
       <c r="T293">
         <v>11.8</v>
       </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V293" t="inlineStr">
         <is>
           <t>N</t>
@@ -27113,6 +28573,11 @@
       <c r="T294">
         <v>12.1</v>
       </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V294" t="inlineStr">
         <is>
           <t>N</t>
@@ -27204,6 +28669,11 @@
       <c r="T295">
         <v>14.6</v>
       </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V295" t="inlineStr">
         <is>
           <t>N</t>
@@ -27295,6 +28765,11 @@
       <c r="T296">
         <v>14</v>
       </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V296" t="inlineStr">
         <is>
           <t>N</t>
@@ -27386,6 +28861,11 @@
       <c r="T297">
         <v>32.5</v>
       </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V297" t="inlineStr">
         <is>
           <t>N</t>
@@ -27477,6 +28957,11 @@
       <c r="T298">
         <v>29.9</v>
       </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V298" t="inlineStr">
         <is>
           <t>N</t>
@@ -27568,6 +29053,11 @@
       <c r="T299">
         <v>16.8</v>
       </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V299" t="inlineStr">
         <is>
           <t>N</t>
@@ -27659,6 +29149,11 @@
       <c r="T300">
         <v>22.8</v>
       </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V300" t="inlineStr">
         <is>
           <t>N</t>
@@ -27750,6 +29245,11 @@
       <c r="T301">
         <v>21.2</v>
       </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V301" t="inlineStr">
         <is>
           <t>N</t>
@@ -27841,6 +29341,11 @@
       <c r="T302">
         <v>12.1</v>
       </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V302" t="inlineStr">
         <is>
           <t>N</t>
@@ -27932,6 +29437,11 @@
       <c r="T303">
         <v>23.4</v>
       </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V303" t="inlineStr">
         <is>
           <t>N</t>
@@ -28023,6 +29533,11 @@
       <c r="T304">
         <v>13.4</v>
       </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V304" t="inlineStr">
         <is>
           <t>N</t>
@@ -28114,6 +29629,11 @@
       <c r="T305">
         <v>10.2</v>
       </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V305" t="inlineStr">
         <is>
           <t>N</t>
@@ -28205,6 +29725,11 @@
       <c r="T306">
         <v>7.7</v>
       </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V306" t="inlineStr">
         <is>
           <t>N</t>
@@ -34044,6 +35569,11 @@
       <c r="R367">
         <v>36</v>
       </c>
+      <c r="U367" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V367" t="inlineStr">
         <is>
           <t>N</t>
@@ -34129,6 +35659,11 @@
       <c r="R368">
         <v>36</v>
       </c>
+      <c r="U368" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V368" t="inlineStr">
         <is>
           <t>N</t>
@@ -34214,6 +35749,11 @@
       <c r="R369">
         <v>36</v>
       </c>
+      <c r="U369" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V369" t="inlineStr">
         <is>
           <t>N</t>
@@ -34299,6 +35839,11 @@
       <c r="R370">
         <v>36</v>
       </c>
+      <c r="U370" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V370" t="inlineStr">
         <is>
           <t>N</t>
@@ -34384,6 +35929,11 @@
       <c r="R371">
         <v>36</v>
       </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V371" t="inlineStr">
         <is>
           <t>N</t>
@@ -34469,6 +36019,11 @@
       <c r="R372">
         <v>36</v>
       </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V372" t="inlineStr">
         <is>
           <t>N</t>
@@ -34554,6 +36109,11 @@
       <c r="R373">
         <v>36</v>
       </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V373" t="inlineStr">
         <is>
           <t>N</t>
@@ -34639,6 +36199,11 @@
       <c r="R374">
         <v>36</v>
       </c>
+      <c r="U374" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V374" t="inlineStr">
         <is>
           <t>N</t>
@@ -34724,6 +36289,11 @@
       <c r="R375">
         <v>36</v>
       </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V375" t="inlineStr">
         <is>
           <t>N</t>
@@ -34809,6 +36379,11 @@
       <c r="R376">
         <v>36</v>
       </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V376" t="inlineStr">
         <is>
           <t>N</t>
@@ -34894,6 +36469,11 @@
       <c r="R377">
         <v>36</v>
       </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V377" t="inlineStr">
         <is>
           <t>N</t>
@@ -34979,6 +36559,11 @@
       <c r="R378">
         <v>36</v>
       </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V378" t="inlineStr">
         <is>
           <t>N</t>
@@ -35064,6 +36649,11 @@
       <c r="R379">
         <v>36</v>
       </c>
+      <c r="U379" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V379" t="inlineStr">
         <is>
           <t>N</t>
@@ -35149,6 +36739,11 @@
       <c r="R380">
         <v>36</v>
       </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V380" t="inlineStr">
         <is>
           <t>N</t>
@@ -35234,6 +36829,11 @@
       <c r="R381">
         <v>36</v>
       </c>
+      <c r="U381" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V381" t="inlineStr">
         <is>
           <t>N</t>
@@ -35319,6 +36919,11 @@
       <c r="R382">
         <v>36</v>
       </c>
+      <c r="U382" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V382" t="inlineStr">
         <is>
           <t>N</t>
@@ -35404,6 +37009,11 @@
       <c r="R383">
         <v>36</v>
       </c>
+      <c r="U383" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V383" t="inlineStr">
         <is>
           <t>N</t>
@@ -35489,6 +37099,11 @@
       <c r="R384">
         <v>36</v>
       </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V384" t="inlineStr">
         <is>
           <t>N</t>
@@ -35574,6 +37189,11 @@
       <c r="R385">
         <v>36</v>
       </c>
+      <c r="U385" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V385" t="inlineStr">
         <is>
           <t>N</t>
@@ -35659,6 +37279,11 @@
       <c r="R386">
         <v>36</v>
       </c>
+      <c r="U386" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V386" t="inlineStr">
         <is>
           <t>N</t>
@@ -35744,6 +37369,11 @@
       <c r="R387">
         <v>36</v>
       </c>
+      <c r="U387" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V387" t="inlineStr">
         <is>
           <t>N</t>
@@ -35829,6 +37459,11 @@
       <c r="R388">
         <v>36</v>
       </c>
+      <c r="U388" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V388" t="inlineStr">
         <is>
           <t>N</t>
@@ -35914,6 +37549,11 @@
       <c r="R389">
         <v>36</v>
       </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V389" t="inlineStr">
         <is>
           <t>N</t>
@@ -35999,6 +37639,11 @@
       <c r="R390">
         <v>36</v>
       </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V390" t="inlineStr">
         <is>
           <t>N</t>
@@ -36084,6 +37729,11 @@
       <c r="R391">
         <v>36</v>
       </c>
+      <c r="U391" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V391" t="inlineStr">
         <is>
           <t>N</t>
@@ -36169,6 +37819,11 @@
       <c r="R392">
         <v>36</v>
       </c>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V392" t="inlineStr">
         <is>
           <t>N</t>
@@ -36254,6 +37909,11 @@
       <c r="R393">
         <v>36</v>
       </c>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V393" t="inlineStr">
         <is>
           <t>N</t>
@@ -36339,6 +37999,11 @@
       <c r="R394">
         <v>36</v>
       </c>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V394" t="inlineStr">
         <is>
           <t>N</t>
@@ -36424,6 +38089,11 @@
       <c r="R395">
         <v>36</v>
       </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V395" t="inlineStr">
         <is>
           <t>N</t>
@@ -36509,6 +38179,11 @@
       <c r="R396">
         <v>36</v>
       </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V396" t="inlineStr">
         <is>
           <t>N</t>
@@ -36594,6 +38269,11 @@
       <c r="R397">
         <v>36</v>
       </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V397" t="inlineStr">
         <is>
           <t>N</t>
@@ -36679,6 +38359,11 @@
       <c r="R398">
         <v>36</v>
       </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V398" t="inlineStr">
         <is>
           <t>N</t>
@@ -36764,6 +38449,11 @@
       <c r="R399">
         <v>36</v>
       </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V399" t="inlineStr">
         <is>
           <t>N</t>
@@ -36849,6 +38539,11 @@
       <c r="R400">
         <v>36</v>
       </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V400" t="inlineStr">
         <is>
           <t>N</t>
@@ -36934,6 +38629,11 @@
       <c r="R401">
         <v>36</v>
       </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V401" t="inlineStr">
         <is>
           <t>N</t>
@@ -37019,6 +38719,11 @@
       <c r="R402">
         <v>36</v>
       </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V402" t="inlineStr">
         <is>
           <t>N</t>
@@ -37104,6 +38809,11 @@
       <c r="R403">
         <v>36</v>
       </c>
+      <c r="U403" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V403" t="inlineStr">
         <is>
           <t>N</t>
@@ -37189,6 +38899,11 @@
       <c r="R404">
         <v>36</v>
       </c>
+      <c r="U404" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V404" t="inlineStr">
         <is>
           <t>N</t>
@@ -37274,6 +38989,11 @@
       <c r="R405">
         <v>36</v>
       </c>
+      <c r="U405" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V405" t="inlineStr">
         <is>
           <t>N</t>
@@ -37359,6 +39079,11 @@
       <c r="R406">
         <v>36</v>
       </c>
+      <c r="U406" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V406" t="inlineStr">
         <is>
           <t>N</t>
@@ -37444,6 +39169,11 @@
       <c r="R407">
         <v>36</v>
       </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V407" t="inlineStr">
         <is>
           <t>N</t>
@@ -37529,6 +39259,11 @@
       <c r="R408">
         <v>36</v>
       </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V408" t="inlineStr">
         <is>
           <t>N</t>
@@ -37614,6 +39349,11 @@
       <c r="R409">
         <v>414</v>
       </c>
+      <c r="U409" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V409" t="inlineStr">
         <is>
           <t>N</t>
@@ -37699,6 +39439,11 @@
       <c r="R410">
         <v>1039</v>
       </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V410" t="inlineStr">
         <is>
           <t>N</t>
@@ -37784,6 +39529,11 @@
       <c r="R411">
         <v>734</v>
       </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V411" t="inlineStr">
         <is>
           <t>N</t>
@@ -37869,6 +39619,11 @@
       <c r="R412">
         <v>268</v>
       </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V412" t="inlineStr">
         <is>
           <t>N</t>
@@ -37954,6 +39709,11 @@
       <c r="R413">
         <v>548</v>
       </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V413" t="inlineStr">
         <is>
           <t>N</t>
@@ -38039,6 +39799,11 @@
       <c r="R414">
         <v>119</v>
       </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V414" t="inlineStr">
         <is>
           <t>N</t>
@@ -38124,6 +39889,11 @@
       <c r="R415">
         <v>59</v>
       </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V415" t="inlineStr">
         <is>
           <t>N</t>
@@ -38209,6 +39979,11 @@
       <c r="R416">
         <v>41</v>
       </c>
+      <c r="U416" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V416" t="inlineStr">
         <is>
           <t>N</t>
@@ -38294,6 +40069,11 @@
       <c r="R417">
         <v>96</v>
       </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V417" t="inlineStr">
         <is>
           <t>N</t>
@@ -38379,6 +40159,11 @@
       <c r="R418">
         <v>96</v>
       </c>
+      <c r="U418" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V418" t="inlineStr">
         <is>
           <t>N</t>
@@ -38464,6 +40249,11 @@
       <c r="R419">
         <v>96</v>
       </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V419" t="inlineStr">
         <is>
           <t>N</t>
@@ -38549,6 +40339,11 @@
       <c r="R420">
         <v>96</v>
       </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V420" t="inlineStr">
         <is>
           <t>N</t>
@@ -38634,6 +40429,11 @@
       <c r="R421">
         <v>96</v>
       </c>
+      <c r="U421" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V421" t="inlineStr">
         <is>
           <t>N</t>
@@ -38719,6 +40519,11 @@
       <c r="R422">
         <v>96</v>
       </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V422" t="inlineStr">
         <is>
           <t>N</t>
@@ -38804,6 +40609,11 @@
       <c r="R423">
         <v>96</v>
       </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V423" t="inlineStr">
         <is>
           <t>N</t>
@@ -38889,6 +40699,11 @@
       <c r="R424">
         <v>96</v>
       </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V424" t="inlineStr">
         <is>
           <t>N</t>
@@ -38974,6 +40789,11 @@
       <c r="R425">
         <v>96</v>
       </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V425" t="inlineStr">
         <is>
           <t>N</t>
@@ -39059,6 +40879,11 @@
       <c r="R426">
         <v>96</v>
       </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V426" t="inlineStr">
         <is>
           <t>N</t>
@@ -39144,6 +40969,11 @@
       <c r="R427">
         <v>96</v>
       </c>
+      <c r="U427" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V427" t="inlineStr">
         <is>
           <t>N</t>
@@ -39229,6 +41059,11 @@
       <c r="R428">
         <v>96</v>
       </c>
+      <c r="U428" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V428" t="inlineStr">
         <is>
           <t>N</t>
@@ -39314,6 +41149,11 @@
       <c r="R429">
         <v>96</v>
       </c>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V429" t="inlineStr">
         <is>
           <t>N</t>
@@ -39399,6 +41239,11 @@
       <c r="R430">
         <v>96</v>
       </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V430" t="inlineStr">
         <is>
           <t>N</t>
@@ -39484,6 +41329,11 @@
       <c r="R431">
         <v>96</v>
       </c>
+      <c r="U431" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V431" t="inlineStr">
         <is>
           <t>N</t>
@@ -39569,6 +41419,11 @@
       <c r="R432">
         <v>96</v>
       </c>
+      <c r="U432" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V432" t="inlineStr">
         <is>
           <t>N</t>
@@ -39654,6 +41509,11 @@
       <c r="R433">
         <v>96</v>
       </c>
+      <c r="U433" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V433" t="inlineStr">
         <is>
           <t>N</t>
@@ -39739,6 +41599,11 @@
       <c r="R434">
         <v>96</v>
       </c>
+      <c r="U434" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V434" t="inlineStr">
         <is>
           <t>N</t>
@@ -39824,6 +41689,11 @@
       <c r="R435">
         <v>96</v>
       </c>
+      <c r="U435" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V435" t="inlineStr">
         <is>
           <t>N</t>
@@ -39909,6 +41779,11 @@
       <c r="R436">
         <v>96</v>
       </c>
+      <c r="U436" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V436" t="inlineStr">
         <is>
           <t>N</t>
@@ -39994,6 +41869,11 @@
       <c r="R437">
         <v>96</v>
       </c>
+      <c r="U437" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V437" t="inlineStr">
         <is>
           <t>N</t>
@@ -40079,6 +41959,11 @@
       <c r="R438">
         <v>96</v>
       </c>
+      <c r="U438" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V438" t="inlineStr">
         <is>
           <t>N</t>
@@ -40164,6 +42049,11 @@
       <c r="R439">
         <v>96</v>
       </c>
+      <c r="U439" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V439" t="inlineStr">
         <is>
           <t>N</t>
@@ -40249,6 +42139,11 @@
       <c r="R440">
         <v>96</v>
       </c>
+      <c r="U440" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V440" t="inlineStr">
         <is>
           <t>N</t>
@@ -40334,6 +42229,11 @@
       <c r="R441">
         <v>96</v>
       </c>
+      <c r="U441" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V441" t="inlineStr">
         <is>
           <t>N</t>
@@ -40419,6 +42319,11 @@
       <c r="R442">
         <v>96</v>
       </c>
+      <c r="U442" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V442" t="inlineStr">
         <is>
           <t>N</t>
@@ -40504,6 +42409,11 @@
       <c r="R443">
         <v>96</v>
       </c>
+      <c r="U443" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V443" t="inlineStr">
         <is>
           <t>N</t>
@@ -40589,6 +42499,11 @@
       <c r="R444">
         <v>96</v>
       </c>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V444" t="inlineStr">
         <is>
           <t>N</t>
@@ -40674,6 +42589,11 @@
       <c r="R445">
         <v>96</v>
       </c>
+      <c r="U445" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V445" t="inlineStr">
         <is>
           <t>N</t>
@@ -40759,6 +42679,11 @@
       <c r="R446">
         <v>96</v>
       </c>
+      <c r="U446" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V446" t="inlineStr">
         <is>
           <t>N</t>
@@ -40844,6 +42769,11 @@
       <c r="R447">
         <v>96</v>
       </c>
+      <c r="U447" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V447" t="inlineStr">
         <is>
           <t>N</t>
@@ -40929,6 +42859,11 @@
       <c r="R448">
         <v>96</v>
       </c>
+      <c r="U448" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V448" t="inlineStr">
         <is>
           <t>N</t>
@@ -41014,6 +42949,11 @@
       <c r="R449">
         <v>96</v>
       </c>
+      <c r="U449" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V449" t="inlineStr">
         <is>
           <t>N</t>
@@ -41099,6 +43039,11 @@
       <c r="R450">
         <v>96</v>
       </c>
+      <c r="U450" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V450" t="inlineStr">
         <is>
           <t>N</t>
@@ -41184,6 +43129,11 @@
       <c r="R451">
         <v>96</v>
       </c>
+      <c r="U451" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V451" t="inlineStr">
         <is>
           <t>N</t>
@@ -41269,6 +43219,11 @@
       <c r="R452">
         <v>96</v>
       </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V452" t="inlineStr">
         <is>
           <t>N</t>
@@ -41354,6 +43309,11 @@
       <c r="R453">
         <v>96</v>
       </c>
+      <c r="U453" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V453" t="inlineStr">
         <is>
           <t>N</t>
@@ -41439,6 +43399,11 @@
       <c r="R454">
         <v>96</v>
       </c>
+      <c r="U454" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V454" t="inlineStr">
         <is>
           <t>N</t>
@@ -41524,6 +43489,11 @@
       <c r="R455">
         <v>96</v>
       </c>
+      <c r="U455" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V455" t="inlineStr">
         <is>
           <t>N</t>
@@ -41609,6 +43579,11 @@
       <c r="R456">
         <v>96</v>
       </c>
+      <c r="U456" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V456" t="inlineStr">
         <is>
           <t>N</t>
@@ -41694,6 +43669,11 @@
       <c r="R457">
         <v>96</v>
       </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V457" t="inlineStr">
         <is>
           <t>N</t>
@@ -41779,6 +43759,11 @@
       <c r="R458">
         <v>96</v>
       </c>
+      <c r="U458" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V458" t="inlineStr">
         <is>
           <t>N</t>
@@ -41864,6 +43849,11 @@
       <c r="R459">
         <v>96</v>
       </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V459" t="inlineStr">
         <is>
           <t>N</t>
@@ -41949,6 +43939,11 @@
       <c r="R460">
         <v>96</v>
       </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V460" t="inlineStr">
         <is>
           <t>N</t>
@@ -42034,6 +44029,11 @@
       <c r="R461">
         <v>96</v>
       </c>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V461" t="inlineStr">
         <is>
           <t>N</t>
@@ -42119,6 +44119,11 @@
       <c r="R462">
         <v>96</v>
       </c>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V462" t="inlineStr">
         <is>
           <t>N</t>
@@ -42204,6 +44209,11 @@
       <c r="R463">
         <v>96</v>
       </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V463" t="inlineStr">
         <is>
           <t>N</t>
@@ -42289,6 +44299,11 @@
       <c r="R464">
         <v>96</v>
       </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V464" t="inlineStr">
         <is>
           <t>N</t>
@@ -42374,6 +44389,11 @@
       <c r="R465">
         <v>96</v>
       </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V465" t="inlineStr">
         <is>
           <t>N</t>
@@ -42459,6 +44479,11 @@
       <c r="R466">
         <v>96</v>
       </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V466" t="inlineStr">
         <is>
           <t>N</t>
@@ -42544,6 +44569,11 @@
       <c r="R467">
         <v>96</v>
       </c>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V467" t="inlineStr">
         <is>
           <t>N</t>
@@ -42629,6 +44659,11 @@
       <c r="R468">
         <v>96</v>
       </c>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V468" t="inlineStr">
         <is>
           <t>N</t>
@@ -42714,6 +44749,11 @@
       <c r="R469">
         <v>96</v>
       </c>
+      <c r="U469" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V469" t="inlineStr">
         <is>
           <t>N</t>
@@ -42799,6 +44839,11 @@
       <c r="R470">
         <v>96</v>
       </c>
+      <c r="U470" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V470" t="inlineStr">
         <is>
           <t>N</t>
@@ -42884,6 +44929,11 @@
       <c r="R471">
         <v>96</v>
       </c>
+      <c r="U471" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V471" t="inlineStr">
         <is>
           <t>N</t>
@@ -42969,6 +45019,11 @@
       <c r="R472">
         <v>96</v>
       </c>
+      <c r="U472" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V472" t="inlineStr">
         <is>
           <t>N</t>
@@ -43054,6 +45109,11 @@
       <c r="R473">
         <v>96</v>
       </c>
+      <c r="U473" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V473" t="inlineStr">
         <is>
           <t>N</t>
@@ -43139,6 +45199,11 @@
       <c r="R474">
         <v>96</v>
       </c>
+      <c r="U474" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V474" t="inlineStr">
         <is>
           <t>N</t>
@@ -43224,6 +45289,11 @@
       <c r="R475">
         <v>96</v>
       </c>
+      <c r="U475" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V475" t="inlineStr">
         <is>
           <t>N</t>
@@ -43309,6 +45379,11 @@
       <c r="R476">
         <v>96</v>
       </c>
+      <c r="U476" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V476" t="inlineStr">
         <is>
           <t>N</t>
@@ -43394,6 +45469,11 @@
       <c r="R477">
         <v>96</v>
       </c>
+      <c r="U477" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V477" t="inlineStr">
         <is>
           <t>N</t>
@@ -43479,6 +45559,11 @@
       <c r="R478">
         <v>96</v>
       </c>
+      <c r="U478" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V478" t="inlineStr">
         <is>
           <t>N</t>
@@ -43564,6 +45649,11 @@
       <c r="R479">
         <v>96</v>
       </c>
+      <c r="U479" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V479" t="inlineStr">
         <is>
           <t>N</t>
@@ -43649,6 +45739,11 @@
       <c r="R480">
         <v>96</v>
       </c>
+      <c r="U480" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V480" t="inlineStr">
         <is>
           <t>N</t>
@@ -43734,6 +45829,11 @@
       <c r="R481">
         <v>96</v>
       </c>
+      <c r="U481" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V481" t="inlineStr">
         <is>
           <t>N</t>
@@ -43819,6 +45919,11 @@
       <c r="R482">
         <v>96</v>
       </c>
+      <c r="U482" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V482" t="inlineStr">
         <is>
           <t>N</t>
@@ -43904,6 +46009,11 @@
       <c r="R483">
         <v>96</v>
       </c>
+      <c r="U483" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V483" t="inlineStr">
         <is>
           <t>N</t>
@@ -43989,6 +46099,11 @@
       <c r="R484">
         <v>72</v>
       </c>
+      <c r="U484" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V484" t="inlineStr">
         <is>
           <t>N</t>
@@ -44074,6 +46189,11 @@
       <c r="R485">
         <v>72</v>
       </c>
+      <c r="U485" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V485" t="inlineStr">
         <is>
           <t>N</t>
@@ -44159,6 +46279,11 @@
       <c r="R486">
         <v>72</v>
       </c>
+      <c r="U486" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V486" t="inlineStr">
         <is>
           <t>N</t>
@@ -44244,6 +46369,11 @@
       <c r="R487">
         <v>72</v>
       </c>
+      <c r="U487" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V487" t="inlineStr">
         <is>
           <t>N</t>
@@ -44329,6 +46459,11 @@
       <c r="R488">
         <v>72</v>
       </c>
+      <c r="U488" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V488" t="inlineStr">
         <is>
           <t>N</t>
@@ -44414,6 +46549,11 @@
       <c r="R489">
         <v>72</v>
       </c>
+      <c r="U489" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V489" t="inlineStr">
         <is>
           <t>N</t>
@@ -44499,6 +46639,11 @@
       <c r="R490">
         <v>72</v>
       </c>
+      <c r="U490" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V490" t="inlineStr">
         <is>
           <t>N</t>
@@ -44584,6 +46729,11 @@
       <c r="R491">
         <v>72</v>
       </c>
+      <c r="U491" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V491" t="inlineStr">
         <is>
           <t>N</t>
@@ -44669,6 +46819,11 @@
       <c r="R492">
         <v>72</v>
       </c>
+      <c r="U492" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V492" t="inlineStr">
         <is>
           <t>N</t>
@@ -44754,6 +46909,11 @@
       <c r="R493">
         <v>72</v>
       </c>
+      <c r="U493" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V493" t="inlineStr">
         <is>
           <t>N</t>
@@ -44839,6 +46999,11 @@
       <c r="R494">
         <v>72</v>
       </c>
+      <c r="U494" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V494" t="inlineStr">
         <is>
           <t>N</t>
@@ -44924,6 +47089,11 @@
       <c r="R495">
         <v>72</v>
       </c>
+      <c r="U495" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V495" t="inlineStr">
         <is>
           <t>N</t>
@@ -45009,6 +47179,11 @@
       <c r="R496">
         <v>96</v>
       </c>
+      <c r="U496" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V496" t="inlineStr">
         <is>
           <t>N</t>
@@ -45094,6 +47269,11 @@
       <c r="R497">
         <v>96</v>
       </c>
+      <c r="U497" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V497" t="inlineStr">
         <is>
           <t>N</t>
@@ -45179,6 +47359,11 @@
       <c r="R498">
         <v>96</v>
       </c>
+      <c r="U498" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V498" t="inlineStr">
         <is>
           <t>N</t>
@@ -45264,6 +47449,11 @@
       <c r="R499">
         <v>96</v>
       </c>
+      <c r="U499" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V499" t="inlineStr">
         <is>
           <t>N</t>
@@ -45349,6 +47539,11 @@
       <c r="R500">
         <v>96</v>
       </c>
+      <c r="U500" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V500" t="inlineStr">
         <is>
           <t>N</t>
@@ -45434,6 +47629,11 @@
       <c r="R501">
         <v>96</v>
       </c>
+      <c r="U501" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V501" t="inlineStr">
         <is>
           <t>N</t>
@@ -45519,6 +47719,11 @@
       <c r="R502">
         <v>96</v>
       </c>
+      <c r="U502" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V502" t="inlineStr">
         <is>
           <t>N</t>
@@ -45604,6 +47809,11 @@
       <c r="R503">
         <v>96</v>
       </c>
+      <c r="U503" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V503" t="inlineStr">
         <is>
           <t>N</t>
@@ -45689,6 +47899,11 @@
       <c r="R504">
         <v>96</v>
       </c>
+      <c r="U504" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V504" t="inlineStr">
         <is>
           <t>N</t>
@@ -45774,6 +47989,11 @@
       <c r="R505">
         <v>96</v>
       </c>
+      <c r="U505" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V505" t="inlineStr">
         <is>
           <t>N</t>
@@ -45859,6 +48079,11 @@
       <c r="R506">
         <v>96</v>
       </c>
+      <c r="U506" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V506" t="inlineStr">
         <is>
           <t>N</t>
@@ -45944,6 +48169,11 @@
       <c r="R507">
         <v>96</v>
       </c>
+      <c r="U507" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V507" t="inlineStr">
         <is>
           <t>N</t>
@@ -46029,6 +48259,11 @@
       <c r="R508">
         <v>96</v>
       </c>
+      <c r="U508" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V508" t="inlineStr">
         <is>
           <t>N</t>
@@ -46114,6 +48349,11 @@
       <c r="R509">
         <v>96</v>
       </c>
+      <c r="U509" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V509" t="inlineStr">
         <is>
           <t>N</t>
@@ -46199,6 +48439,11 @@
       <c r="R510">
         <v>96</v>
       </c>
+      <c r="U510" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V510" t="inlineStr">
         <is>
           <t>N</t>
@@ -46284,6 +48529,11 @@
       <c r="R511">
         <v>96</v>
       </c>
+      <c r="U511" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V511" t="inlineStr">
         <is>
           <t>N</t>
@@ -46369,6 +48619,11 @@
       <c r="R512">
         <v>96</v>
       </c>
+      <c r="U512" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V512" t="inlineStr">
         <is>
           <t>N</t>
@@ -46454,6 +48709,11 @@
       <c r="R513">
         <v>96</v>
       </c>
+      <c r="U513" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V513" t="inlineStr">
         <is>
           <t>N</t>
@@ -46539,6 +48799,11 @@
       <c r="R514">
         <v>96</v>
       </c>
+      <c r="U514" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V514" t="inlineStr">
         <is>
           <t>N</t>
@@ -46624,6 +48889,11 @@
       <c r="R515">
         <v>96</v>
       </c>
+      <c r="U515" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V515" t="inlineStr">
         <is>
           <t>N</t>
@@ -46709,6 +48979,11 @@
       <c r="R516">
         <v>96</v>
       </c>
+      <c r="U516" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V516" t="inlineStr">
         <is>
           <t>N</t>
@@ -46794,6 +49069,11 @@
       <c r="R517">
         <v>96</v>
       </c>
+      <c r="U517" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V517" t="inlineStr">
         <is>
           <t>N</t>
@@ -46879,6 +49159,11 @@
       <c r="R518">
         <v>96</v>
       </c>
+      <c r="U518" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V518" t="inlineStr">
         <is>
           <t>N</t>
@@ -46964,6 +49249,11 @@
       <c r="R519">
         <v>60</v>
       </c>
+      <c r="U519" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V519" t="inlineStr">
         <is>
           <t>N</t>
@@ -47049,6 +49339,11 @@
       <c r="R520">
         <v>60</v>
       </c>
+      <c r="U520" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V520" t="inlineStr">
         <is>
           <t>N</t>
@@ -47134,6 +49429,11 @@
       <c r="R521">
         <v>60</v>
       </c>
+      <c r="U521" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V521" t="inlineStr">
         <is>
           <t>N</t>
@@ -47219,6 +49519,11 @@
       <c r="R522">
         <v>60</v>
       </c>
+      <c r="U522" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V522" t="inlineStr">
         <is>
           <t>N</t>
@@ -47304,6 +49609,11 @@
       <c r="R523">
         <v>60</v>
       </c>
+      <c r="U523" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V523" t="inlineStr">
         <is>
           <t>N</t>
@@ -47389,6 +49699,11 @@
       <c r="R524">
         <v>60</v>
       </c>
+      <c r="U524" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V524" t="inlineStr">
         <is>
           <t>N</t>
@@ -47474,6 +49789,11 @@
       <c r="R525">
         <v>60</v>
       </c>
+      <c r="U525" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V525" t="inlineStr">
         <is>
           <t>N</t>
@@ -47559,6 +49879,11 @@
       <c r="R526">
         <v>60</v>
       </c>
+      <c r="U526" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V526" t="inlineStr">
         <is>
           <t>N</t>
@@ -47644,6 +49969,11 @@
       <c r="R527">
         <v>60</v>
       </c>
+      <c r="U527" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V527" t="inlineStr">
         <is>
           <t>N</t>
@@ -47729,6 +50059,11 @@
       <c r="R528">
         <v>60</v>
       </c>
+      <c r="U528" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V528" t="inlineStr">
         <is>
           <t>N</t>
@@ -47814,6 +50149,11 @@
       <c r="R529">
         <v>60</v>
       </c>
+      <c r="U529" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V529" t="inlineStr">
         <is>
           <t>N</t>
@@ -47899,6 +50239,11 @@
       <c r="R530">
         <v>60</v>
       </c>
+      <c r="U530" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V530" t="inlineStr">
         <is>
           <t>N</t>
@@ -47984,6 +50329,11 @@
       <c r="R531">
         <v>60</v>
       </c>
+      <c r="U531" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V531" t="inlineStr">
         <is>
           <t>N</t>
@@ -48069,6 +50419,11 @@
       <c r="R532">
         <v>60</v>
       </c>
+      <c r="U532" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V532" t="inlineStr">
         <is>
           <t>N</t>
@@ -48154,6 +50509,11 @@
       <c r="R533">
         <v>60</v>
       </c>
+      <c r="U533" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V533" t="inlineStr">
         <is>
           <t>N</t>
@@ -48239,6 +50599,11 @@
       <c r="R534">
         <v>60</v>
       </c>
+      <c r="U534" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V534" t="inlineStr">
         <is>
           <t>N</t>
@@ -48324,6 +50689,11 @@
       <c r="R535">
         <v>60</v>
       </c>
+      <c r="U535" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V535" t="inlineStr">
         <is>
           <t>N</t>
@@ -48409,6 +50779,11 @@
       <c r="R536">
         <v>60</v>
       </c>
+      <c r="U536" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V536" t="inlineStr">
         <is>
           <t>N</t>
@@ -48494,6 +50869,11 @@
       <c r="R537">
         <v>60</v>
       </c>
+      <c r="U537" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V537" t="inlineStr">
         <is>
           <t>N</t>
@@ -48579,6 +50959,11 @@
       <c r="R538">
         <v>60</v>
       </c>
+      <c r="U538" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V538" t="inlineStr">
         <is>
           <t>N</t>
@@ -48664,6 +51049,11 @@
       <c r="R539">
         <v>60</v>
       </c>
+      <c r="U539" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V539" t="inlineStr">
         <is>
           <t>N</t>
@@ -48749,6 +51139,11 @@
       <c r="R540">
         <v>60</v>
       </c>
+      <c r="U540" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V540" t="inlineStr">
         <is>
           <t>N</t>
@@ -48834,6 +51229,11 @@
       <c r="R541">
         <v>60</v>
       </c>
+      <c r="U541" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V541" t="inlineStr">
         <is>
           <t>N</t>
@@ -48919,6 +51319,11 @@
       <c r="R542">
         <v>60</v>
       </c>
+      <c r="U542" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V542" t="inlineStr">
         <is>
           <t>N</t>
@@ -49004,6 +51409,11 @@
       <c r="R543">
         <v>60</v>
       </c>
+      <c r="U543" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V543" t="inlineStr">
         <is>
           <t>N</t>
@@ -49089,6 +51499,11 @@
       <c r="R544">
         <v>60</v>
       </c>
+      <c r="U544" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V544" t="inlineStr">
         <is>
           <t>N</t>
@@ -49174,6 +51589,11 @@
       <c r="R545">
         <v>60</v>
       </c>
+      <c r="U545" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V545" t="inlineStr">
         <is>
           <t>N</t>
@@ -49259,6 +51679,11 @@
       <c r="R546">
         <v>60</v>
       </c>
+      <c r="U546" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V546" t="inlineStr">
         <is>
           <t>N</t>
@@ -49344,6 +51769,11 @@
       <c r="R547">
         <v>60</v>
       </c>
+      <c r="U547" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V547" t="inlineStr">
         <is>
           <t>N</t>
@@ -49429,6 +51859,11 @@
       <c r="R548">
         <v>60</v>
       </c>
+      <c r="U548" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V548" t="inlineStr">
         <is>
           <t>N</t>
@@ -49514,6 +51949,11 @@
       <c r="R549">
         <v>60</v>
       </c>
+      <c r="U549" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V549" t="inlineStr">
         <is>
           <t>N</t>
@@ -49599,6 +52039,11 @@
       <c r="R550">
         <v>60</v>
       </c>
+      <c r="U550" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V550" t="inlineStr">
         <is>
           <t>N</t>
@@ -49684,6 +52129,11 @@
       <c r="R551">
         <v>60</v>
       </c>
+      <c r="U551" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V551" t="inlineStr">
         <is>
           <t>N</t>
@@ -49769,6 +52219,11 @@
       <c r="R552">
         <v>60</v>
       </c>
+      <c r="U552" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V552" t="inlineStr">
         <is>
           <t>N</t>
@@ -49854,6 +52309,11 @@
       <c r="R553">
         <v>60</v>
       </c>
+      <c r="U553" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V553" t="inlineStr">
         <is>
           <t>N</t>
@@ -49939,6 +52399,11 @@
       <c r="R554">
         <v>60</v>
       </c>
+      <c r="U554" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V554" t="inlineStr">
         <is>
           <t>N</t>
@@ -50024,6 +52489,11 @@
       <c r="R555">
         <v>60</v>
       </c>
+      <c r="U555" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V555" t="inlineStr">
         <is>
           <t>N</t>
@@ -50109,6 +52579,11 @@
       <c r="R556">
         <v>60</v>
       </c>
+      <c r="U556" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V556" t="inlineStr">
         <is>
           <t>N</t>
@@ -50194,6 +52669,11 @@
       <c r="R557">
         <v>60</v>
       </c>
+      <c r="U557" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V557" t="inlineStr">
         <is>
           <t>N</t>
@@ -50279,6 +52759,11 @@
       <c r="R558">
         <v>60</v>
       </c>
+      <c r="U558" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V558" t="inlineStr">
         <is>
           <t>N</t>
@@ -50364,6 +52849,11 @@
       <c r="R559">
         <v>60</v>
       </c>
+      <c r="U559" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V559" t="inlineStr">
         <is>
           <t>N</t>
@@ -50449,6 +52939,11 @@
       <c r="R560">
         <v>60</v>
       </c>
+      <c r="U560" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V560" t="inlineStr">
         <is>
           <t>N</t>
@@ -50534,6 +53029,11 @@
       <c r="R561">
         <v>100</v>
       </c>
+      <c r="U561" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V561" t="inlineStr">
         <is>
           <t>N</t>
@@ -50619,6 +53119,11 @@
       <c r="R562">
         <v>100</v>
       </c>
+      <c r="U562" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V562" t="inlineStr">
         <is>
           <t>N</t>
@@ -50704,6 +53209,11 @@
       <c r="R563">
         <v>100</v>
       </c>
+      <c r="U563" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V563" t="inlineStr">
         <is>
           <t>N</t>
@@ -50789,6 +53299,11 @@
       <c r="R564">
         <v>100</v>
       </c>
+      <c r="U564" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V564" t="inlineStr">
         <is>
           <t>N</t>
@@ -50874,6 +53389,11 @@
       <c r="R565">
         <v>100</v>
       </c>
+      <c r="U565" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V565" t="inlineStr">
         <is>
           <t>N</t>
@@ -50959,6 +53479,11 @@
       <c r="R566">
         <v>100</v>
       </c>
+      <c r="U566" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V566" t="inlineStr">
         <is>
           <t>N</t>
@@ -51044,6 +53569,11 @@
       <c r="R567">
         <v>50</v>
       </c>
+      <c r="U567" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V567" t="inlineStr">
         <is>
           <t>N</t>
@@ -51129,6 +53659,11 @@
       <c r="R568">
         <v>50</v>
       </c>
+      <c r="U568" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V568" t="inlineStr">
         <is>
           <t>N</t>
@@ -51214,6 +53749,11 @@
       <c r="R569">
         <v>50</v>
       </c>
+      <c r="U569" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V569" t="inlineStr">
         <is>
           <t>N</t>
@@ -51299,6 +53839,11 @@
       <c r="R570">
         <v>50</v>
       </c>
+      <c r="U570" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V570" t="inlineStr">
         <is>
           <t>N</t>
@@ -51384,6 +53929,11 @@
       <c r="R571">
         <v>50</v>
       </c>
+      <c r="U571" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V571" t="inlineStr">
         <is>
           <t>N</t>
@@ -51469,6 +54019,11 @@
       <c r="R572">
         <v>50</v>
       </c>
+      <c r="U572" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V572" t="inlineStr">
         <is>
           <t>N</t>
@@ -51554,6 +54109,11 @@
       <c r="R573">
         <v>50</v>
       </c>
+      <c r="U573" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V573" t="inlineStr">
         <is>
           <t>N</t>
@@ -51639,6 +54199,11 @@
       <c r="R574">
         <v>50</v>
       </c>
+      <c r="U574" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V574" t="inlineStr">
         <is>
           <t>N</t>
@@ -51724,6 +54289,11 @@
       <c r="R575">
         <v>50</v>
       </c>
+      <c r="U575" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V575" t="inlineStr">
         <is>
           <t>N</t>
@@ -51809,6 +54379,11 @@
       <c r="R576">
         <v>50</v>
       </c>
+      <c r="U576" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V576" t="inlineStr">
         <is>
           <t>N</t>
@@ -51894,6 +54469,11 @@
       <c r="R577">
         <v>50</v>
       </c>
+      <c r="U577" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V577" t="inlineStr">
         <is>
           <t>N</t>
@@ -51979,6 +54559,11 @@
       <c r="R578">
         <v>50</v>
       </c>
+      <c r="U578" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V578" t="inlineStr">
         <is>
           <t>N</t>
@@ -52064,6 +54649,11 @@
       <c r="R579">
         <v>50</v>
       </c>
+      <c r="U579" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V579" t="inlineStr">
         <is>
           <t>N</t>
@@ -52149,6 +54739,11 @@
       <c r="R580">
         <v>50</v>
       </c>
+      <c r="U580" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V580" t="inlineStr">
         <is>
           <t>N</t>
@@ -52234,6 +54829,11 @@
       <c r="R581">
         <v>50</v>
       </c>
+      <c r="U581" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V581" t="inlineStr">
         <is>
           <t>N</t>
@@ -52319,6 +54919,11 @@
       <c r="R582">
         <v>166</v>
       </c>
+      <c r="U582" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V582" t="inlineStr">
         <is>
           <t>N</t>
@@ -52404,6 +55009,11 @@
       <c r="R583">
         <v>253</v>
       </c>
+      <c r="U583" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V583" t="inlineStr">
         <is>
           <t>N</t>
@@ -52489,6 +55099,11 @@
       <c r="R584">
         <v>115</v>
       </c>
+      <c r="U584" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V584" t="inlineStr">
         <is>
           <t>N</t>
@@ -52574,6 +55189,11 @@
       <c r="R585">
         <v>137</v>
       </c>
+      <c r="U585" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V585" t="inlineStr">
         <is>
           <t>N</t>
@@ -52659,6 +55279,11 @@
       <c r="R586">
         <v>98</v>
       </c>
+      <c r="U586" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V586" t="inlineStr">
         <is>
           <t>N</t>
@@ -52744,6 +55369,11 @@
       <c r="R587">
         <v>58</v>
       </c>
+      <c r="U587" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V587" t="inlineStr">
         <is>
           <t>N</t>
@@ -52829,6 +55459,11 @@
       <c r="R588">
         <v>67</v>
       </c>
+      <c r="U588" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V588" t="inlineStr">
         <is>
           <t>N</t>
@@ -52914,6 +55549,11 @@
       <c r="R589">
         <v>240</v>
       </c>
+      <c r="U589" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V589" t="inlineStr">
         <is>
           <t>N</t>
@@ -52999,6 +55639,11 @@
       <c r="R590">
         <v>240</v>
       </c>
+      <c r="U590" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V590" t="inlineStr">
         <is>
           <t>N</t>
@@ -53084,6 +55729,11 @@
       <c r="R591">
         <v>240</v>
       </c>
+      <c r="U591" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V591" t="inlineStr">
         <is>
           <t>N</t>
@@ -53169,6 +55819,11 @@
       <c r="R592">
         <v>300</v>
       </c>
+      <c r="U592" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V592" t="inlineStr">
         <is>
           <t>N</t>
@@ -53254,6 +55909,11 @@
       <c r="R593">
         <v>92</v>
       </c>
+      <c r="U593" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V593" t="inlineStr">
         <is>
           <t>N</t>
@@ -53339,6 +55999,11 @@
       <c r="R594">
         <v>75</v>
       </c>
+      <c r="U594" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V594" t="inlineStr">
         <is>
           <t>N</t>
@@ -53424,6 +56089,11 @@
       <c r="R595">
         <v>83</v>
       </c>
+      <c r="U595" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V595" t="inlineStr">
         <is>
           <t>N</t>
@@ -53509,6 +56179,11 @@
       <c r="R596">
         <v>46</v>
       </c>
+      <c r="U596" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V596" t="inlineStr">
         <is>
           <t>N</t>
@@ -53594,6 +56269,11 @@
       <c r="R597">
         <v>27</v>
       </c>
+      <c r="U597" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V597" t="inlineStr">
         <is>
           <t>N</t>
@@ -53679,6 +56359,11 @@
       <c r="R598">
         <v>88</v>
       </c>
+      <c r="U598" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V598" t="inlineStr">
         <is>
           <t>N</t>
@@ -53764,6 +56449,11 @@
       <c r="R599">
         <v>96</v>
       </c>
+      <c r="U599" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V599" t="inlineStr">
         <is>
           <t>N</t>
@@ -53849,6 +56539,11 @@
       <c r="R600">
         <v>96</v>
       </c>
+      <c r="U600" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V600" t="inlineStr">
         <is>
           <t>N</t>
@@ -53934,6 +56629,11 @@
       <c r="R601">
         <v>88</v>
       </c>
+      <c r="U601" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V601" t="inlineStr">
         <is>
           <t>N</t>
@@ -54019,6 +56719,11 @@
       <c r="R602">
         <v>96</v>
       </c>
+      <c r="U602" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V602" t="inlineStr">
         <is>
           <t>N</t>
@@ -54104,6 +56809,11 @@
       <c r="R603">
         <v>88</v>
       </c>
+      <c r="U603" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V603" t="inlineStr">
         <is>
           <t>N</t>
@@ -54189,6 +56899,11 @@
       <c r="R604">
         <v>36</v>
       </c>
+      <c r="U604" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V604" t="inlineStr">
         <is>
           <t>N</t>
@@ -54273,6 +56988,11 @@
       </c>
       <c r="R605">
         <v>11</v>
+      </c>
+      <c r="U605" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="V605" t="inlineStr">
         <is>
